--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Cntf-Il6ra.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Cntf-Il6ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cntf</t>
   </si>
   <si>
     <t>Il6ra</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.857377159055374</v>
+        <v>1.249087666666667</v>
       </c>
       <c r="H2">
-        <v>0.857377159055374</v>
+        <v>3.747263</v>
       </c>
       <c r="I2">
-        <v>0.7566612048076802</v>
+        <v>0.3661911890049113</v>
       </c>
       <c r="J2">
-        <v>0.7566612048076802</v>
+        <v>0.3661911890049113</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.99005198478535</v>
+        <v>19.68532233333334</v>
       </c>
       <c r="N2">
-        <v>4.99005198478535</v>
+        <v>59.055967</v>
       </c>
       <c r="O2">
-        <v>0.217668922731177</v>
+        <v>0.5039562241205585</v>
       </c>
       <c r="P2">
-        <v>0.217668922731177</v>
+        <v>0.5039562241205585</v>
       </c>
       <c r="Q2">
-        <v>4.278356594253895</v>
+        <v>24.58869334092456</v>
       </c>
       <c r="R2">
-        <v>4.278356594253895</v>
+        <v>221.298240068321</v>
       </c>
       <c r="S2">
-        <v>0.1647016293229622</v>
+        <v>0.1845443289171329</v>
       </c>
       <c r="T2">
-        <v>0.1647016293229622</v>
+        <v>0.1845443289171329</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.857377159055374</v>
+        <v>1.249087666666667</v>
       </c>
       <c r="H3">
-        <v>0.857377159055374</v>
+        <v>3.747263</v>
       </c>
       <c r="I3">
-        <v>0.7566612048076802</v>
+        <v>0.3661911890049113</v>
       </c>
       <c r="J3">
-        <v>0.7566612048076802</v>
+        <v>0.3661911890049113</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.46456593499559</v>
+        <v>1.484487666666667</v>
       </c>
       <c r="N3">
-        <v>1.46456593499559</v>
+        <v>4.453463</v>
       </c>
       <c r="O3">
-        <v>0.06388520406425827</v>
+        <v>0.03800378711503639</v>
       </c>
       <c r="P3">
-        <v>0.06388520406425827</v>
+        <v>0.0380037871150364</v>
       </c>
       <c r="Q3">
-        <v>1.255685380595797</v>
+        <v>1.854255235752111</v>
       </c>
       <c r="R3">
-        <v>1.255685380595797</v>
+        <v>16.688297121769</v>
       </c>
       <c r="S3">
-        <v>0.04833945547664616</v>
+        <v>0.01391665199034471</v>
       </c>
       <c r="T3">
-        <v>0.04833945547664616</v>
+        <v>0.01391665199034471</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.857377159055374</v>
+        <v>1.249087666666667</v>
       </c>
       <c r="H4">
-        <v>0.857377159055374</v>
+        <v>3.747263</v>
       </c>
       <c r="I4">
-        <v>0.7566612048076802</v>
+        <v>0.3661911890049113</v>
       </c>
       <c r="J4">
-        <v>0.7566612048076802</v>
+        <v>0.3661911890049113</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.364959757269</v>
+        <v>17.76686133333333</v>
       </c>
       <c r="N4">
-        <v>16.364959757269</v>
+        <v>53.300584</v>
       </c>
       <c r="O4">
-        <v>0.7138489081405901</v>
+        <v>0.4548424557345857</v>
       </c>
       <c r="P4">
-        <v>0.7138489081405901</v>
+        <v>0.4548424557345858</v>
       </c>
       <c r="Q4">
-        <v>14.03094270474282</v>
+        <v>22.19236736684356</v>
       </c>
       <c r="R4">
-        <v>14.03094270474282</v>
+        <v>199.731306301592</v>
       </c>
       <c r="S4">
-        <v>0.5401417748843059</v>
+        <v>0.1665592996753617</v>
       </c>
       <c r="T4">
-        <v>0.5401417748843059</v>
+        <v>0.1665592996753617</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.857377159055374</v>
+        <v>1.249087666666667</v>
       </c>
       <c r="H5">
-        <v>0.857377159055374</v>
+        <v>3.747263</v>
       </c>
       <c r="I5">
-        <v>0.7566612048076802</v>
+        <v>0.3661911890049113</v>
       </c>
       <c r="J5">
-        <v>0.7566612048076802</v>
+        <v>0.3661911890049113</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.105385253685506</v>
+        <v>0.1249006666666667</v>
       </c>
       <c r="N5">
-        <v>0.105385253685506</v>
+        <v>0.374702</v>
       </c>
       <c r="O5">
-        <v>0.004596965063974705</v>
+        <v>0.003197533029819349</v>
       </c>
       <c r="P5">
-        <v>0.004596965063974705</v>
+        <v>0.003197533029819349</v>
       </c>
       <c r="Q5">
-        <v>0.09035490941120902</v>
+        <v>0.1560118822917778</v>
       </c>
       <c r="R5">
-        <v>0.09035490941120902</v>
+        <v>1.404106940626</v>
       </c>
       <c r="S5">
-        <v>0.003478345123765914</v>
+        <v>0.001170908422072024</v>
       </c>
       <c r="T5">
-        <v>0.003478345123765914</v>
+        <v>0.001170908422072024</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.275728587093317</v>
+        <v>0.5813396666666667</v>
       </c>
       <c r="H6">
-        <v>0.275728587093317</v>
+        <v>1.744019</v>
       </c>
       <c r="I6">
-        <v>0.2433387951923197</v>
+        <v>0.1704295618581233</v>
       </c>
       <c r="J6">
-        <v>0.2433387951923197</v>
+        <v>0.1704295618581232</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.99005198478535</v>
+        <v>19.68532233333334</v>
       </c>
       <c r="N6">
-        <v>4.99005198478535</v>
+        <v>59.055967</v>
       </c>
       <c r="O6">
-        <v>0.217668922731177</v>
+        <v>0.5039562241205585</v>
       </c>
       <c r="P6">
-        <v>0.217668922731177</v>
+        <v>0.5039562241205585</v>
       </c>
       <c r="Q6">
-        <v>1.375899983287067</v>
+        <v>11.44385872348589</v>
       </c>
       <c r="R6">
-        <v>1.375899983287067</v>
+        <v>102.994728511373</v>
       </c>
       <c r="S6">
-        <v>0.05296729340821475</v>
+        <v>0.08588903847254097</v>
       </c>
       <c r="T6">
-        <v>0.05296729340821475</v>
+        <v>0.08588903847254095</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.275728587093317</v>
+        <v>0.5813396666666667</v>
       </c>
       <c r="H7">
-        <v>0.275728587093317</v>
+        <v>1.744019</v>
       </c>
       <c r="I7">
-        <v>0.2433387951923197</v>
+        <v>0.1704295618581233</v>
       </c>
       <c r="J7">
-        <v>0.2433387951923197</v>
+        <v>0.1704295618581232</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.46456593499559</v>
+        <v>1.484487666666667</v>
       </c>
       <c r="N7">
-        <v>1.46456593499559</v>
+        <v>4.453463</v>
       </c>
       <c r="O7">
-        <v>0.06388520406425827</v>
+        <v>0.03800378711503639</v>
       </c>
       <c r="P7">
-        <v>0.06388520406425827</v>
+        <v>0.0380037871150364</v>
       </c>
       <c r="Q7">
-        <v>0.4038226959613367</v>
+        <v>0.8629915653107778</v>
       </c>
       <c r="R7">
-        <v>0.4038226959613367</v>
+        <v>7.766924087797001</v>
       </c>
       <c r="S7">
-        <v>0.01554574858761209</v>
+        <v>0.006476968786965043</v>
       </c>
       <c r="T7">
-        <v>0.01554574858761209</v>
+        <v>0.006476968786965044</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.275728587093317</v>
+        <v>0.5813396666666667</v>
       </c>
       <c r="H8">
-        <v>0.275728587093317</v>
+        <v>1.744019</v>
       </c>
       <c r="I8">
-        <v>0.2433387951923197</v>
+        <v>0.1704295618581233</v>
       </c>
       <c r="J8">
-        <v>0.2433387951923197</v>
+        <v>0.1704295618581232</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.364959757269</v>
+        <v>17.76686133333333</v>
       </c>
       <c r="N8">
-        <v>16.364959757269</v>
+        <v>53.300584</v>
       </c>
       <c r="O8">
-        <v>0.7138489081405901</v>
+        <v>0.4548424557345857</v>
       </c>
       <c r="P8">
-        <v>0.7138489081405901</v>
+        <v>0.4548424557345858</v>
       </c>
       <c r="Q8">
-        <v>4.512287231710773</v>
+        <v>10.32858124523289</v>
       </c>
       <c r="R8">
-        <v>4.512287231710773</v>
+        <v>92.95723120709602</v>
       </c>
       <c r="S8">
-        <v>0.1737071332562841</v>
+        <v>0.07751860044531828</v>
       </c>
       <c r="T8">
-        <v>0.1737071332562841</v>
+        <v>0.07751860044531826</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.5813396666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.744019</v>
+      </c>
+      <c r="I9">
+        <v>0.1704295618581233</v>
+      </c>
+      <c r="J9">
+        <v>0.1704295618581232</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.1249006666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.374702</v>
+      </c>
+      <c r="O9">
+        <v>0.003197533029819349</v>
+      </c>
+      <c r="P9">
+        <v>0.003197533029819349</v>
+      </c>
+      <c r="Q9">
+        <v>0.07260971192644444</v>
+      </c>
+      <c r="R9">
+        <v>0.653487407338</v>
+      </c>
+      <c r="S9">
+        <v>0.0005449541532989891</v>
+      </c>
+      <c r="T9">
+        <v>0.0005449541532989891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.704738</v>
+      </c>
+      <c r="H10">
+        <v>2.114214</v>
+      </c>
+      <c r="I10">
+        <v>0.20660587166442</v>
+      </c>
+      <c r="J10">
+        <v>0.20660587166442</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>19.68532233333334</v>
+      </c>
+      <c r="N10">
+        <v>59.055967</v>
+      </c>
+      <c r="O10">
+        <v>0.5039562241205585</v>
+      </c>
+      <c r="P10">
+        <v>0.5039562241205585</v>
+      </c>
+      <c r="Q10">
+        <v>13.87299469054867</v>
+      </c>
+      <c r="R10">
+        <v>124.856952214938</v>
+      </c>
+      <c r="S10">
+        <v>0.1041203149651378</v>
+      </c>
+      <c r="T10">
+        <v>0.1041203149651378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.704738</v>
+      </c>
+      <c r="H11">
+        <v>2.114214</v>
+      </c>
+      <c r="I11">
+        <v>0.20660587166442</v>
+      </c>
+      <c r="J11">
+        <v>0.20660587166442</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.484487666666667</v>
+      </c>
+      <c r="N11">
+        <v>4.453463</v>
+      </c>
+      <c r="O11">
+        <v>0.03800378711503639</v>
+      </c>
+      <c r="P11">
+        <v>0.0380037871150364</v>
+      </c>
+      <c r="Q11">
+        <v>1.046174869231333</v>
+      </c>
+      <c r="R11">
+        <v>9.415573823082001</v>
+      </c>
+      <c r="S11">
+        <v>0.007851805563451148</v>
+      </c>
+      <c r="T11">
+        <v>0.00785180556345115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.704738</v>
+      </c>
+      <c r="H12">
+        <v>2.114214</v>
+      </c>
+      <c r="I12">
+        <v>0.20660587166442</v>
+      </c>
+      <c r="J12">
+        <v>0.20660587166442</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>17.76686133333333</v>
+      </c>
+      <c r="N12">
+        <v>53.300584</v>
+      </c>
+      <c r="O12">
+        <v>0.4548424557345857</v>
+      </c>
+      <c r="P12">
+        <v>0.4548424557345858</v>
+      </c>
+      <c r="Q12">
+        <v>12.52098232233067</v>
+      </c>
+      <c r="R12">
+        <v>112.688840900976</v>
+      </c>
+      <c r="S12">
+        <v>0.09397312203702947</v>
+      </c>
+      <c r="T12">
+        <v>0.09397312203702947</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.704738</v>
+      </c>
+      <c r="H13">
+        <v>2.114214</v>
+      </c>
+      <c r="I13">
+        <v>0.20660587166442</v>
+      </c>
+      <c r="J13">
+        <v>0.20660587166442</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.1249006666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.374702</v>
+      </c>
+      <c r="O13">
+        <v>0.003197533029819349</v>
+      </c>
+      <c r="P13">
+        <v>0.003197533029819349</v>
+      </c>
+      <c r="Q13">
+        <v>0.08802224602533333</v>
+      </c>
+      <c r="R13">
+        <v>0.792200214228</v>
+      </c>
+      <c r="S13">
+        <v>0.0006606290988016006</v>
+      </c>
+      <c r="T13">
+        <v>0.0006606290988016006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.275728587093317</v>
-      </c>
-      <c r="H9">
-        <v>0.275728587093317</v>
-      </c>
-      <c r="I9">
-        <v>0.2433387951923197</v>
-      </c>
-      <c r="J9">
-        <v>0.2433387951923197</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.105385253685506</v>
-      </c>
-      <c r="N9">
-        <v>0.105385253685506</v>
-      </c>
-      <c r="O9">
-        <v>0.004596965063974705</v>
-      </c>
-      <c r="P9">
-        <v>0.004596965063974705</v>
-      </c>
-      <c r="Q9">
-        <v>0.02905772709917535</v>
-      </c>
-      <c r="R9">
-        <v>0.02905772709917535</v>
-      </c>
-      <c r="S9">
-        <v>0.00111861994020879</v>
-      </c>
-      <c r="T9">
-        <v>0.00111861994020879</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.8758606666666667</v>
+      </c>
+      <c r="H14">
+        <v>2.627582</v>
+      </c>
+      <c r="I14">
+        <v>0.2567733774725455</v>
+      </c>
+      <c r="J14">
+        <v>0.2567733774725454</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>19.68532233333334</v>
+      </c>
+      <c r="N14">
+        <v>59.055967</v>
+      </c>
+      <c r="O14">
+        <v>0.5039562241205585</v>
+      </c>
+      <c r="P14">
+        <v>0.5039562241205585</v>
+      </c>
+      <c r="Q14">
+        <v>17.24159954242156</v>
+      </c>
+      <c r="R14">
+        <v>155.174395881794</v>
+      </c>
+      <c r="S14">
+        <v>0.1294025417657469</v>
+      </c>
+      <c r="T14">
+        <v>0.1294025417657469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.8758606666666667</v>
+      </c>
+      <c r="H15">
+        <v>2.627582</v>
+      </c>
+      <c r="I15">
+        <v>0.2567733774725455</v>
+      </c>
+      <c r="J15">
+        <v>0.2567733774725454</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.484487666666667</v>
+      </c>
+      <c r="N15">
+        <v>4.453463</v>
+      </c>
+      <c r="O15">
+        <v>0.03800378711503639</v>
+      </c>
+      <c r="P15">
+        <v>0.0380037871150364</v>
+      </c>
+      <c r="Q15">
+        <v>1.300204357385111</v>
+      </c>
+      <c r="R15">
+        <v>11.701839216466</v>
+      </c>
+      <c r="S15">
+        <v>0.0097583607742755</v>
+      </c>
+      <c r="T15">
+        <v>0.0097583607742755</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.8758606666666667</v>
+      </c>
+      <c r="H16">
+        <v>2.627582</v>
+      </c>
+      <c r="I16">
+        <v>0.2567733774725455</v>
+      </c>
+      <c r="J16">
+        <v>0.2567733774725454</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>17.76686133333333</v>
+      </c>
+      <c r="N16">
+        <v>53.300584</v>
+      </c>
+      <c r="O16">
+        <v>0.4548424557345857</v>
+      </c>
+      <c r="P16">
+        <v>0.4548424557345858</v>
+      </c>
+      <c r="Q16">
+        <v>15.56129501198756</v>
+      </c>
+      <c r="R16">
+        <v>140.051655107888</v>
+      </c>
+      <c r="S16">
+        <v>0.1167914335768763</v>
+      </c>
+      <c r="T16">
+        <v>0.1167914335768763</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.8758606666666667</v>
+      </c>
+      <c r="H17">
+        <v>2.627582</v>
+      </c>
+      <c r="I17">
+        <v>0.2567733774725455</v>
+      </c>
+      <c r="J17">
+        <v>0.2567733774725454</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.1249006666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.374702</v>
+      </c>
+      <c r="O17">
+        <v>0.003197533029819349</v>
+      </c>
+      <c r="P17">
+        <v>0.003197533029819349</v>
+      </c>
+      <c r="Q17">
+        <v>0.1093955811737778</v>
+      </c>
+      <c r="R17">
+        <v>0.9845602305640001</v>
+      </c>
+      <c r="S17">
+        <v>0.0008210413556467357</v>
+      </c>
+      <c r="T17">
+        <v>0.0008210413556467357</v>
       </c>
     </row>
   </sheetData>
